--- a/biology/Botanique/Clinopodium_nepeta_subsp._spruneri/Clinopodium_nepeta_subsp._spruneri.xlsx
+++ b/biology/Botanique/Clinopodium_nepeta_subsp._spruneri/Clinopodium_nepeta_subsp._spruneri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clinopodium nepeta subsp. spruneri est une sous-espèce de Clinopodium nepeta, plantes à fleurs de la famille des Lamiaceae et du genre Clinopodium.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette sous-espèce est originaire de la région méditerranéenne et du Caucase. Elle a été introduite au Nord-Est des États-Unis et en Tchécoslovaquie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette sous-espèce est originaire de la région méditerranéenne et du Caucase. Elle a été introduite au Nord-Est des États-Unis et en Tchécoslovaquie.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est décrite en premier en 1853 par le botaniste suisse Edmond Boissier, qui la classe au rang d'espèce dans le genre Calamintha, sous le basionyme Calamintha spruneri. En 2011, les botanistes italiens Fabrizio Bartolucci et Fabio Conti la classent dans le genre Clinopodium au rang de sous-espèce, sous le nom trinomial Clinopodium nepeta subsp. spruneri[2].
-Clinopodium nepeta subsp. spruneri a de nombreux synonymes, ayant été classée selon les auteurs dans les genres Calamintha, Clinopodium, Melissa, Nepeta, Satureja ou Thymus, et ayant été considérée comme une sous-espèce, une variété, une forme ou une espèce à part entière[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est décrite en premier en 1853 par le botaniste suisse Edmond Boissier, qui la classe au rang d'espèce dans le genre Calamintha, sous le basionyme Calamintha spruneri. En 2011, les botanistes italiens Fabrizio Bartolucci et Fabio Conti la classent dans le genre Clinopodium au rang de sous-espèce, sous le nom trinomial Clinopodium nepeta subsp. spruneri.
+Clinopodium nepeta subsp. spruneri a de nombreux synonymes, ayant été classée selon les auteurs dans les genres Calamintha, Clinopodium, Melissa, Nepeta, Satureja ou Thymus, et ayant été considérée comme une sous-espèce, une variété, une forme ou une espèce à part entière :
 Calamintha adscendens Willk. &amp; Lange
 Calamintha baetica Boiss. &amp; Reut.
 Calamintha byzantina K.Koch
